--- a/prisma/data.xlsx
+++ b/prisma/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29128"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BCB55B-B67B-4C5B-93A4-DF6CE5DB0269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A3FAA8-5CEB-4356-A318-0A56A72957C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="360" windowWidth="18820" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <definedName name="_ddn600" hidden="1">#REF!</definedName>
     <definedName name="_E99999" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DSTH!$A$1:$J$273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DSTH!$A$1:$J$274</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</definedName>
     <definedName name="_gon4" hidden="1">#REF!</definedName>
     <definedName name="_hom2" hidden="1">#REF!</definedName>
@@ -1045,7 +1045,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="607">
   <si>
     <t>MSNV</t>
   </si>
@@ -1852,6 +1852,12 @@
   </si>
   <si>
     <t>0973014792</t>
+  </si>
+  <si>
+    <t>PTGĐ</t>
+  </si>
+  <si>
+    <t>Phó Tổng Giám Đốc</t>
   </si>
   <si>
     <t>TẠ MINH QUÂN</t>
@@ -5187,11 +5193,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J275"/>
+  <dimension ref="A1:J276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H5"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -8165,52 +8171,46 @@
       <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A106" s="32">
-        <v>301302013</v>
-      </c>
-      <c r="B106" s="27" t="s">
+      <c r="A106" s="33"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E106" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="F106" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
+      <c r="E106" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="25"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A107" s="32">
-        <v>301707134</v>
+        <v>301302013</v>
       </c>
       <c r="B107" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="F107" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E107" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="F107" s="28" t="s">
+      <c r="G107" s="28" t="s">
         <v>275</v>
-      </c>
-      <c r="G107" s="28" t="s">
-        <v>276</v>
       </c>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
@@ -8218,22 +8218,22 @@
     </row>
     <row r="108" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A108" s="32">
-        <v>552304143</v>
+        <v>301707134</v>
       </c>
       <c r="B108" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="F108" s="28" t="s">
         <v>277</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="28" t="s">
-        <v>272</v>
       </c>
       <c r="G108" s="28" t="s">
         <v>278</v>
@@ -8243,51 +8243,49 @@
       <c r="J108" s="43"/>
     </row>
     <row r="109" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A109" s="33">
-        <v>552504032</v>
-      </c>
-      <c r="B109" s="24" t="s">
+      <c r="A109" s="32">
+        <v>552304143</v>
+      </c>
+      <c r="B109" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="25" t="s">
+      <c r="C109" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G109" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E109" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G109" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="H109" s="32">
-        <v>552304143</v>
-      </c>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
     </row>
     <row r="110" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A110" s="33">
-        <v>551903156</v>
+        <v>552504032</v>
       </c>
       <c r="B110" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="25" t="s">
         <v>282</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>37</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>37</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G110" s="25" t="s">
         <v>283</v>
@@ -8299,62 +8297,62 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A111" s="32">
+      <c r="A111" s="33">
+        <v>551903156</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H111" s="32">
+        <v>552304143</v>
+      </c>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+    </row>
+    <row r="112" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A112" s="32">
         <v>552306006</v>
       </c>
-      <c r="B111" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="C111" s="8" t="s">
+      <c r="B112" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D112" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E112" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F111" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-    </row>
-    <row r="112" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A112" s="33">
-        <v>552209189</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G112" s="25" t="s">
+      <c r="F112" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G112" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="H112" s="32">
-        <v>552306006</v>
-      </c>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
     </row>
     <row r="113" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A113" s="33">
-        <v>552311041</v>
+        <v>552209189</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>288</v>
@@ -8369,7 +8367,7 @@
         <v>181</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G113" s="25" t="s">
         <v>289</v>
@@ -8382,7 +8380,7 @@
     </row>
     <row r="114" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A114" s="33">
-        <v>551907229</v>
+        <v>552311041</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>290</v>
@@ -8397,7 +8395,7 @@
         <v>181</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G114" s="25" t="s">
         <v>291</v>
@@ -8410,7 +8408,7 @@
     </row>
     <row r="115" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A115" s="33">
-        <v>552112008</v>
+        <v>551907229</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>292</v>
@@ -8425,7 +8423,7 @@
         <v>181</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>293</v>
@@ -8438,7 +8436,7 @@
     </row>
     <row r="116" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A116" s="33">
-        <v>551906196</v>
+        <v>552112008</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>294</v>
@@ -8453,7 +8451,7 @@
         <v>181</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G116" s="25" t="s">
         <v>295</v>
@@ -8466,7 +8464,7 @@
     </row>
     <row r="117" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A117" s="33">
-        <v>551907231</v>
+        <v>551906196</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>296</v>
@@ -8481,7 +8479,7 @@
         <v>181</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>297</v>
@@ -8493,66 +8491,64 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A118" s="32">
+      <c r="A118" s="33">
+        <v>551907231</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H118" s="32">
+        <v>552306006</v>
+      </c>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+    </row>
+    <row r="119" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A119" s="32">
         <v>552504001</v>
       </c>
-      <c r="B118" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C118" s="10" t="s">
+      <c r="B119" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="E118" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="F118" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G118" s="28" t="s">
+      <c r="D119" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="H118" s="43"/>
-      <c r="I118" s="32">
-        <v>301707134</v>
-      </c>
-      <c r="J118" s="43"/>
-    </row>
-    <row r="119" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A119" s="33">
-        <v>552408135</v>
-      </c>
-      <c r="B119" s="24" t="s">
+      <c r="E119" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G119" s="25" t="s">
+      <c r="F119" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G119" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="H119" s="32">
-        <v>552504001</v>
-      </c>
+      <c r="H119" s="43"/>
       <c r="I119" s="32">
         <v>301707134</v>
       </c>
-      <c r="J119" s="42"/>
+      <c r="J119" s="43"/>
     </row>
     <row r="120" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A120" s="33">
-        <v>552503073</v>
+        <v>552408135</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>304</v>
@@ -8561,13 +8557,13 @@
         <v>21</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G120" s="25" t="s">
         <v>305</v>
@@ -8582,7 +8578,7 @@
     </row>
     <row r="121" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A121" s="33">
-        <v>551902097</v>
+        <v>552503073</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>306</v>
@@ -8591,13 +8587,13 @@
         <v>21</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G121" s="25" t="s">
         <v>307</v>
@@ -8612,7 +8608,7 @@
     </row>
     <row r="122" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A122" s="33">
-        <v>552209085</v>
+        <v>551902097</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>308</v>
@@ -8621,13 +8617,13 @@
         <v>21</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>309</v>
@@ -8642,7 +8638,7 @@
     </row>
     <row r="123" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A123" s="33">
-        <v>551810099</v>
+        <v>552209085</v>
       </c>
       <c r="B123" s="24" t="s">
         <v>310</v>
@@ -8651,13 +8647,13 @@
         <v>21</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G123" s="25" t="s">
         <v>311</v>
@@ -8672,7 +8668,7 @@
     </row>
     <row r="124" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A124" s="33">
-        <v>551906151</v>
+        <v>551810099</v>
       </c>
       <c r="B124" s="24" t="s">
         <v>312</v>
@@ -8681,13 +8677,13 @@
         <v>21</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>313</v>
@@ -8702,7 +8698,7 @@
     </row>
     <row r="125" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A125" s="33">
-        <v>351807121</v>
+        <v>551906151</v>
       </c>
       <c r="B125" s="24" t="s">
         <v>314</v>
@@ -8711,13 +8707,13 @@
         <v>21</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>315</v>
@@ -8732,7 +8728,7 @@
     </row>
     <row r="126" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A126" s="33">
-        <v>551810120</v>
+        <v>351807121</v>
       </c>
       <c r="B126" s="24" t="s">
         <v>316</v>
@@ -8741,13 +8737,13 @@
         <v>21</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G126" s="25" t="s">
         <v>317</v>
@@ -8762,7 +8758,7 @@
     </row>
     <row r="127" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A127" s="33">
-        <v>351706126</v>
+        <v>551810120</v>
       </c>
       <c r="B127" s="24" t="s">
         <v>318</v>
@@ -8771,13 +8767,13 @@
         <v>21</v>
       </c>
       <c r="D127" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G127" s="25" t="s">
         <v>319</v>
@@ -8792,7 +8788,7 @@
     </row>
     <row r="128" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A128" s="33">
-        <v>551903482</v>
+        <v>351706126</v>
       </c>
       <c r="B128" s="24" t="s">
         <v>320</v>
@@ -8801,13 +8797,13 @@
         <v>21</v>
       </c>
       <c r="D128" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G128" s="25" t="s">
         <v>321</v>
@@ -8821,64 +8817,66 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A129" s="32">
-        <v>351703002</v>
-      </c>
-      <c r="B129" s="27" t="s">
+      <c r="A129" s="33">
+        <v>551903482</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F129" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G129" s="28" t="s">
+      <c r="C129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G129" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="H129" s="43"/>
+      <c r="H129" s="32">
+        <v>552504001</v>
+      </c>
       <c r="I129" s="32">
         <v>301707134</v>
       </c>
-      <c r="J129" s="43"/>
+      <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A130" s="33">
-        <v>551907230</v>
-      </c>
-      <c r="B130" s="24" t="s">
+      <c r="A130" s="32">
+        <v>351703002</v>
+      </c>
+      <c r="B130" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="C130" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="34" t="s">
+      <c r="C130" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E130" s="25" t="s">
+      <c r="E130" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F130" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G130" s="25" t="s">
+      <c r="F130" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G130" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="H130" s="42"/>
+      <c r="H130" s="43"/>
       <c r="I130" s="32">
         <v>301707134</v>
       </c>
-      <c r="J130" s="42"/>
+      <c r="J130" s="43"/>
     </row>
     <row r="131" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A131" s="33">
-        <v>552204165</v>
+        <v>551907230</v>
       </c>
       <c r="B131" s="24" t="s">
         <v>326</v>
@@ -8893,7 +8891,7 @@
         <v>91</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G131" s="25" t="s">
         <v>327</v>
@@ -8906,7 +8904,7 @@
     </row>
     <row r="132" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A132" s="33">
-        <v>551812023</v>
+        <v>552204165</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>328</v>
@@ -8921,7 +8919,7 @@
         <v>91</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G132" s="25" t="s">
         <v>329</v>
@@ -8933,11 +8931,11 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="33">
+        <v>551812023</v>
+      </c>
+      <c r="B133" s="24" t="s">
         <v>330</v>
-      </c>
-      <c r="B133" s="36" t="s">
-        <v>331</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>21</v>
@@ -8949,9 +8947,11 @@
         <v>91</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G133" s="25"/>
+        <v>274</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>331</v>
+      </c>
       <c r="H133" s="42"/>
       <c r="I133" s="32">
         <v>301707134</v>
@@ -8959,80 +8959,78 @@
       <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A134" s="32">
+      <c r="A134" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G134" s="25"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="32">
+        <v>301707134</v>
+      </c>
+      <c r="J134" s="42"/>
+    </row>
+    <row r="135" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A135" s="32">
         <v>351704232</v>
       </c>
-      <c r="B134" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="C134" s="10" t="s">
+      <c r="B135" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D134" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="F134" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G134" s="28" t="s">
+      <c r="D135" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-    </row>
-    <row r="135" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A135" s="33">
-        <v>552111004</v>
-      </c>
-      <c r="B135" s="24" t="s">
+      <c r="E135" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D135" s="34" t="s">
+      <c r="F135" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G135" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="E135" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="F135" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G135" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="H135" s="32">
-        <v>351704232</v>
-      </c>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A136" s="33">
-        <v>552006022</v>
+        <v>552111004</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D136" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G136" s="25" t="s">
         <v>340</v>
-      </c>
-      <c r="E136" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>341</v>
       </c>
       <c r="H136" s="32">
         <v>351704232</v>
@@ -9042,25 +9040,25 @@
     </row>
     <row r="137" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A137" s="33">
-        <v>351706181</v>
+        <v>552006022</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D137" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G137" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="E137" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="F137" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G137" s="25" t="s">
-        <v>344</v>
       </c>
       <c r="H137" s="32">
         <v>351704232</v>
@@ -9070,25 +9068,25 @@
     </row>
     <row r="138" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A138" s="33">
-        <v>552504030</v>
+        <v>351706181</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G138" s="25" t="s">
         <v>346</v>
-      </c>
-      <c r="E138" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>347</v>
       </c>
       <c r="H138" s="32">
         <v>351704232</v>
@@ -9097,8 +9095,12 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A139" s="33"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="33">
+        <v>552504030</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>347</v>
+      </c>
       <c r="C139" s="9" t="s">
         <v>143</v>
       </c>
@@ -9106,12 +9108,14 @@
         <v>348</v>
       </c>
       <c r="E139" s="34" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G139" s="25"/>
+        <v>274</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>349</v>
+      </c>
       <c r="H139" s="32">
         <v>351704232</v>
       </c>
@@ -9125,13 +9129,13 @@
         <v>143</v>
       </c>
       <c r="D140" s="34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E140" s="34" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G140" s="25"/>
       <c r="H140" s="32">
@@ -9141,12 +9145,8 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A141" s="33">
-        <v>552209012</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>350</v>
-      </c>
+      <c r="A141" s="33"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="9" t="s">
         <v>143</v>
       </c>
@@ -9154,14 +9154,12 @@
         <v>351</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>352</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G141" s="25"/>
       <c r="H141" s="32">
         <v>351704232</v>
       </c>
@@ -9169,80 +9167,80 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A142" s="32">
+      <c r="A142" s="33">
+        <v>552209012</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E142" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="H142" s="32">
+        <v>351704232</v>
+      </c>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+    </row>
+    <row r="143" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A143" s="32">
         <v>301708070</v>
       </c>
-      <c r="B142" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C142" s="10" t="s">
+      <c r="B143" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D142" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="E142" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="F142" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G142" s="28" t="s">
+      <c r="D143" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
-    </row>
-    <row r="143" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A143" s="33">
-        <v>551905109</v>
-      </c>
-      <c r="B143" s="24" t="s">
+      <c r="E143" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D143" s="34" t="s">
+      <c r="F143" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G143" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="E143" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G143" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="H143" s="32">
-        <v>301708070</v>
-      </c>
-      <c r="I143" s="45"/>
-      <c r="J143" s="45"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="43"/>
     </row>
     <row r="144" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A144" s="33">
-        <v>551906214</v>
+        <v>551905109</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D144" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="E144" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="F144" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G144" s="34" t="s">
         <v>361</v>
-      </c>
-      <c r="E144" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="F144" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G144" s="34" t="s">
-        <v>362</v>
       </c>
       <c r="H144" s="32">
         <v>301708070</v>
@@ -9251,8 +9249,12 @@
       <c r="J144" s="45"/>
     </row>
     <row r="145" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A145" s="33"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="33">
+        <v>551906214</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>362</v>
+      </c>
       <c r="C145" s="9" t="s">
         <v>143</v>
       </c>
@@ -9260,12 +9262,14 @@
         <v>363</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F145" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G145" s="34"/>
+        <v>274</v>
+      </c>
+      <c r="G145" s="34" t="s">
+        <v>364</v>
+      </c>
       <c r="H145" s="32">
         <v>301708070</v>
       </c>
@@ -9273,12 +9277,8 @@
       <c r="J145" s="45"/>
     </row>
     <row r="146" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A146" s="33">
-        <v>551811006</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>364</v>
-      </c>
+      <c r="A146" s="33"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="9" t="s">
         <v>143</v>
       </c>
@@ -9286,14 +9286,12 @@
         <v>365</v>
       </c>
       <c r="E146" s="34" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F146" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G146" s="34" t="s">
-        <v>366</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G146" s="34"/>
       <c r="H146" s="32">
         <v>301708070</v>
       </c>
@@ -9302,25 +9300,25 @@
     </row>
     <row r="147" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A147" s="33">
-        <v>551812109</v>
+        <v>551811006</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D147" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="F147" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G147" s="34" t="s">
         <v>368</v>
-      </c>
-      <c r="E147" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="F147" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G147" s="34" t="s">
-        <v>369</v>
       </c>
       <c r="H147" s="32">
         <v>301708070</v>
@@ -9330,25 +9328,25 @@
     </row>
     <row r="148" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A148" s="33">
-        <v>551904183</v>
+        <v>551812109</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D148" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="F148" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G148" s="34" t="s">
         <v>371</v>
-      </c>
-      <c r="E148" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="F148" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G148" s="34" t="s">
-        <v>372</v>
       </c>
       <c r="H148" s="32">
         <v>301708070</v>
@@ -9357,72 +9355,74 @@
       <c r="J148" s="45"/>
     </row>
     <row r="149" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A149" s="32"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="10" t="s">
+      <c r="A149" s="33">
+        <v>551904183</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E149" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="F149" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G149" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="H149" s="32">
+        <v>301708070</v>
+      </c>
+      <c r="I149" s="45"/>
+      <c r="J149" s="45"/>
+    </row>
+    <row r="150" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A150" s="32"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D149" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E149" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="F149" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G149" s="35"/>
-      <c r="H149" s="46"/>
-      <c r="I149" s="46"/>
-      <c r="J149" s="46"/>
-    </row>
-    <row r="150" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A150" s="33">
-        <v>551906236</v>
-      </c>
-      <c r="B150" s="24" t="s">
+      <c r="D150" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D150" s="34" t="s">
+      <c r="E150" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="E150" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="F150" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G150" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="45"/>
+      <c r="F150" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G150" s="35"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="46"/>
+      <c r="J150" s="46"/>
     </row>
     <row r="151" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A151" s="33">
-        <v>241204001</v>
+        <v>551906236</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D151" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="E151" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F151" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G151" s="34" t="s">
         <v>379</v>
-      </c>
-      <c r="E151" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="F151" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G151" s="34" t="s">
-        <v>380</v>
       </c>
       <c r="H151" s="45"/>
       <c r="I151" s="45"/>
@@ -9430,25 +9430,25 @@
     </row>
     <row r="152" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A152" s="33">
-        <v>552111002</v>
+        <v>241204001</v>
       </c>
       <c r="B152" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D152" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E152" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F152" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G152" s="34" t="s">
         <v>382</v>
-      </c>
-      <c r="E152" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="F152" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G152" s="34" t="s">
-        <v>383</v>
       </c>
       <c r="H152" s="45"/>
       <c r="I152" s="45"/>
@@ -9456,25 +9456,25 @@
     </row>
     <row r="153" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A153" s="33">
-        <v>552408255</v>
+        <v>552111002</v>
       </c>
       <c r="B153" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D153" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="E153" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F153" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G153" s="34" t="s">
         <v>385</v>
-      </c>
-      <c r="E153" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="F153" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G153" s="34" t="s">
-        <v>386</v>
       </c>
       <c r="H153" s="45"/>
       <c r="I153" s="45"/>
@@ -9482,33 +9482,35 @@
     </row>
     <row r="154" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A154" s="33">
-        <v>552203233</v>
-      </c>
-      <c r="B154" s="36" t="s">
-        <v>387</v>
+        <v>552408255</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D154" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E154" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F154" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G154" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="E154" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="F154" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G154" s="34"/>
       <c r="H154" s="45"/>
       <c r="I154" s="45"/>
       <c r="J154" s="45"/>
     </row>
     <row r="155" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A155" s="33">
-        <v>552310025</v>
-      </c>
-      <c r="B155" s="24" t="s">
+        <v>552203233</v>
+      </c>
+      <c r="B155" s="36" t="s">
         <v>389</v>
       </c>
       <c r="C155" s="9" t="s">
@@ -9518,93 +9520,89 @@
         <v>390</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F155" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G155" s="34" t="s">
-        <v>391</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G155" s="34"/>
       <c r="H155" s="45"/>
       <c r="I155" s="45"/>
       <c r="J155" s="45"/>
     </row>
     <row r="156" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A156" s="32">
+      <c r="A156" s="33">
+        <v>552310025</v>
+      </c>
+      <c r="B156" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E156" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F156" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G156" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="H156" s="45"/>
+      <c r="I156" s="45"/>
+      <c r="J156" s="45"/>
+    </row>
+    <row r="157" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A157" s="32">
         <v>351810065</v>
       </c>
-      <c r="B156" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="C156" s="8" t="s">
+      <c r="B157" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D156" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="E156" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="F156" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G156" s="28" t="s">
+      <c r="D157" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="H156" s="43"/>
-      <c r="I156" s="43"/>
-      <c r="J156" s="43"/>
-    </row>
-    <row r="157" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A157" s="33">
-        <v>552011329</v>
-      </c>
-      <c r="B157" s="24" t="s">
+      <c r="E157" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C157" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D157" s="34" t="s">
+      <c r="F157" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G157" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="E157" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="F157" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G157" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="H157" s="32">
-        <v>351810065</v>
-      </c>
-      <c r="I157" s="45"/>
-      <c r="J157" s="45"/>
+      <c r="H157" s="43"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="43"/>
     </row>
     <row r="158" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A158" s="33">
-        <v>551903229</v>
+        <v>552011329</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D158" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="E158" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F158" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G158" s="34" t="s">
         <v>400</v>
-      </c>
-      <c r="E158" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="F158" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G158" s="34" t="s">
-        <v>401</v>
       </c>
       <c r="H158" s="32">
         <v>351810065</v>
@@ -9614,25 +9612,25 @@
     </row>
     <row r="159" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A159" s="33">
-        <v>552010053</v>
+        <v>551903229</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D159" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F159" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G159" s="34" t="s">
         <v>403</v>
-      </c>
-      <c r="E159" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="F159" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G159" s="34" t="s">
-        <v>404</v>
       </c>
       <c r="H159" s="32">
         <v>351810065</v>
@@ -9642,25 +9640,25 @@
     </row>
     <row r="160" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A160" s="33">
-        <v>552210230</v>
+        <v>552010053</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D160" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="E160" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F160" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G160" s="34" t="s">
         <v>406</v>
-      </c>
-      <c r="E160" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="F160" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G160" s="34" t="s">
-        <v>407</v>
       </c>
       <c r="H160" s="32">
         <v>351810065</v>
@@ -9670,24 +9668,26 @@
     </row>
     <row r="161" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A161" s="33">
-        <v>552304343</v>
-      </c>
-      <c r="B161" s="36" t="s">
-        <v>408</v>
+        <v>552210230</v>
+      </c>
+      <c r="B161" s="24" t="s">
+        <v>407</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D161" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="E161" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F161" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G161" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="E161" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="F161" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G161" s="34"/>
       <c r="H161" s="32">
         <v>351810065</v>
       </c>
@@ -9696,9 +9696,9 @@
     </row>
     <row r="162" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A162" s="33">
-        <v>551810073</v>
-      </c>
-      <c r="B162" s="24" t="s">
+        <v>552304343</v>
+      </c>
+      <c r="B162" s="36" t="s">
         <v>410</v>
       </c>
       <c r="C162" s="9" t="s">
@@ -9708,14 +9708,12 @@
         <v>411</v>
       </c>
       <c r="E162" s="34" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F162" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G162" s="34" t="s">
-        <v>412</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G162" s="34"/>
       <c r="H162" s="32">
         <v>351810065</v>
       </c>
@@ -9723,168 +9721,168 @@
       <c r="J162" s="45"/>
     </row>
     <row r="163" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A163" s="32">
+      <c r="A163" s="33">
+        <v>551810073</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="E163" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F163" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G163" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="H163" s="32">
+        <v>351810065</v>
+      </c>
+      <c r="I163" s="45"/>
+      <c r="J163" s="45"/>
+    </row>
+    <row r="164" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A164" s="32">
         <v>319307002</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D163" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E163" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="F163" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G163" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="H163" s="43"/>
-      <c r="I163" s="43"/>
-      <c r="J163" s="43"/>
-    </row>
-    <row r="164" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A164" s="26">
-        <v>552503072</v>
       </c>
       <c r="B164" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="C164" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>270</v>
+      <c r="C164" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="H164" s="43"/>
       <c r="I164" s="43"/>
       <c r="J164" s="43"/>
     </row>
     <row r="165" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A165" s="32">
-        <v>552206081</v>
+      <c r="A165" s="26">
+        <v>552503072</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D165" s="28" t="s">
-        <v>37</v>
+        <v>417</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="H165" s="43"/>
       <c r="I165" s="43"/>
       <c r="J165" s="43"/>
     </row>
     <row r="166" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A166" s="33">
+      <c r="A166" s="32">
+        <v>552206081</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H166" s="43"/>
+      <c r="I166" s="43"/>
+      <c r="J166" s="43"/>
+    </row>
+    <row r="167" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A167" s="33">
         <v>552002276</v>
       </c>
-      <c r="B166" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" s="25" t="s">
+      <c r="B167" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E166" s="25" t="s">
+      <c r="E167" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F166" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="H166" s="32">
+      <c r="F167" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G167" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="H167" s="32">
         <v>552206081</v>
       </c>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
-    </row>
-    <row r="167" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A167" s="32">
+      <c r="I167" s="42"/>
+      <c r="J167" s="42"/>
+    </row>
+    <row r="168" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A168" s="32">
         <v>551906001</v>
       </c>
-      <c r="B167" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="C167" s="10" t="s">
+      <c r="B168" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D167" s="35" t="s">
+      <c r="D168" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="E167" s="28" t="s">
+      <c r="E168" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F167" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G167" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="H167" s="43"/>
-      <c r="I167" s="43"/>
-      <c r="J167" s="43"/>
-    </row>
-    <row r="168" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A168" s="33">
-        <v>552104027</v>
-      </c>
-      <c r="B168" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D168" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E168" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F168" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G168" s="25" t="s">
+      <c r="F168" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G168" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="H168" s="32">
-        <v>551906001</v>
-      </c>
-      <c r="I168" s="42"/>
-      <c r="J168" s="42"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="43"/>
+      <c r="J168" s="43"/>
     </row>
     <row r="169" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A169" s="33">
-        <v>552111012</v>
+        <v>552104027</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>424</v>
@@ -9899,7 +9897,7 @@
         <v>181</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G169" s="25" t="s">
         <v>425</v>
@@ -9912,7 +9910,7 @@
     </row>
     <row r="170" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A170" s="33">
-        <v>241510245</v>
+        <v>552111012</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>426</v>
@@ -9927,7 +9925,7 @@
         <v>181</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G170" s="25" t="s">
         <v>427</v>
@@ -9940,7 +9938,7 @@
     </row>
     <row r="171" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A171" s="33">
-        <v>242203092</v>
+        <v>241510245</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>428</v>
@@ -9955,7 +9953,7 @@
         <v>181</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G171" s="25" t="s">
         <v>429</v>
@@ -9968,7 +9966,7 @@
     </row>
     <row r="172" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A172" s="33">
-        <v>242205143</v>
+        <v>242203092</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>430</v>
@@ -9983,7 +9981,7 @@
         <v>181</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G172" s="25" t="s">
         <v>431</v>
@@ -9995,66 +9993,64 @@
       <c r="J172" s="42"/>
     </row>
     <row r="173" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A173" s="32">
+      <c r="A173" s="33">
+        <v>242205143</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G173" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="H173" s="32">
+        <v>551906001</v>
+      </c>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+    </row>
+    <row r="174" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A174" s="32">
         <v>351708054</v>
       </c>
-      <c r="B173" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="C173" s="8" t="s">
+      <c r="B174" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="C174" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D173" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E173" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="F173" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G173" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="H173" s="43"/>
-      <c r="I173" s="26">
-        <v>552503072</v>
-      </c>
-      <c r="J173" s="43"/>
-    </row>
-    <row r="174" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A174" s="33">
-        <v>551811245</v>
-      </c>
-      <c r="B174" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="F174" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G174" s="25" t="s">
+      <c r="D174" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E174" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F174" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G174" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="H174" s="32">
-        <v>351708054</v>
-      </c>
+      <c r="H174" s="43"/>
       <c r="I174" s="26">
         <v>552503072</v>
       </c>
-      <c r="J174" s="42"/>
+      <c r="J174" s="43"/>
     </row>
     <row r="175" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A175" s="33">
-        <v>551902087</v>
+        <v>551811245</v>
       </c>
       <c r="B175" s="24" t="s">
         <v>436</v>
@@ -10063,13 +10059,13 @@
         <v>21</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G175" s="25" t="s">
         <v>437</v>
@@ -10084,7 +10080,7 @@
     </row>
     <row r="176" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A176" s="33">
-        <v>551811084</v>
+        <v>551902087</v>
       </c>
       <c r="B176" s="24" t="s">
         <v>438</v>
@@ -10093,13 +10089,13 @@
         <v>21</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G176" s="25" t="s">
         <v>439</v>
@@ -10114,7 +10110,7 @@
     </row>
     <row r="177" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A177" s="33">
-        <v>551811263</v>
+        <v>551811084</v>
       </c>
       <c r="B177" s="24" t="s">
         <v>440</v>
@@ -10123,13 +10119,13 @@
         <v>21</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G177" s="25" t="s">
         <v>441</v>
@@ -10144,7 +10140,7 @@
     </row>
     <row r="178" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A178" s="33">
-        <v>552105227</v>
+        <v>551811263</v>
       </c>
       <c r="B178" s="24" t="s">
         <v>442</v>
@@ -10153,13 +10149,13 @@
         <v>21</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F178" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G178" s="25" t="s">
         <v>443</v>
@@ -10174,7 +10170,7 @@
     </row>
     <row r="179" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A179" s="33">
-        <v>552203245</v>
+        <v>552105227</v>
       </c>
       <c r="B179" s="24" t="s">
         <v>444</v>
@@ -10183,13 +10179,13 @@
         <v>21</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F179" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G179" s="25" t="s">
         <v>445</v>
@@ -10204,7 +10200,7 @@
     </row>
     <row r="180" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A180" s="33">
-        <v>552406001</v>
+        <v>552203245</v>
       </c>
       <c r="B180" s="24" t="s">
         <v>446</v>
@@ -10213,13 +10209,13 @@
         <v>21</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F180" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G180" s="25" t="s">
         <v>447</v>
@@ -10234,7 +10230,7 @@
     </row>
     <row r="181" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A181" s="33">
-        <v>552210136</v>
+        <v>552406001</v>
       </c>
       <c r="B181" s="24" t="s">
         <v>448</v>
@@ -10243,13 +10239,13 @@
         <v>21</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G181" s="25" t="s">
         <v>449</v>
@@ -10264,24 +10260,26 @@
     </row>
     <row r="182" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A182" s="33">
-        <v>242105290</v>
-      </c>
-      <c r="B182" s="36" t="s">
-        <v>424</v>
+        <v>552210136</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>450</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F182" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G182" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>451</v>
+      </c>
       <c r="H182" s="32">
         <v>351708054</v>
       </c>
@@ -10291,64 +10289,64 @@
       <c r="J182" s="42"/>
     </row>
     <row r="183" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A183" s="32">
-        <v>311504198</v>
-      </c>
-      <c r="B183" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D183" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F183" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G183" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="H183" s="43"/>
+      <c r="A183" s="33">
+        <v>242105290</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E183" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G183" s="25"/>
+      <c r="H183" s="32">
+        <v>351708054</v>
+      </c>
       <c r="I183" s="26">
         <v>552503072</v>
       </c>
-      <c r="J183" s="43"/>
+      <c r="J183" s="42"/>
     </row>
     <row r="184" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A184" s="33">
-        <v>552102077</v>
-      </c>
-      <c r="B184" s="24" t="s">
+      <c r="A184" s="32">
+        <v>311504198</v>
+      </c>
+      <c r="B184" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="25" t="s">
+      <c r="C184" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E184" s="25" t="s">
+      <c r="E184" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F184" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G184" s="25" t="s">
+      <c r="F184" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G184" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="H184" s="42"/>
+      <c r="H184" s="43"/>
       <c r="I184" s="26">
         <v>552503072</v>
       </c>
-      <c r="J184" s="42"/>
+      <c r="J184" s="43"/>
     </row>
     <row r="185" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A185" s="33">
-        <v>552011171</v>
+        <v>552102077</v>
       </c>
       <c r="B185" s="24" t="s">
         <v>454</v>
@@ -10363,7 +10361,7 @@
         <v>91</v>
       </c>
       <c r="F185" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G185" s="25" t="s">
         <v>455</v>
@@ -10376,7 +10374,7 @@
     </row>
     <row r="186" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A186" s="33">
-        <v>551906091</v>
+        <v>552011171</v>
       </c>
       <c r="B186" s="24" t="s">
         <v>456</v>
@@ -10391,7 +10389,7 @@
         <v>91</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G186" s="25" t="s">
         <v>457</v>
@@ -10403,10 +10401,10 @@
       <c r="J186" s="42"/>
     </row>
     <row r="187" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A187" s="38">
-        <v>552304229</v>
-      </c>
-      <c r="B187" s="39" t="s">
+      <c r="A187" s="33">
+        <v>551906091</v>
+      </c>
+      <c r="B187" s="24" t="s">
         <v>458</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -10419,9 +10417,11 @@
         <v>91</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G187" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="G187" s="25" t="s">
+        <v>459</v>
+      </c>
       <c r="H187" s="42"/>
       <c r="I187" s="26">
         <v>552503072</v>
@@ -10429,62 +10429,60 @@
       <c r="J187" s="42"/>
     </row>
     <row r="188" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A188" s="32">
+      <c r="A188" s="38">
+        <v>552304229</v>
+      </c>
+      <c r="B188" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E188" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G188" s="25"/>
+      <c r="H188" s="42"/>
+      <c r="I188" s="26">
+        <v>552503072</v>
+      </c>
+      <c r="J188" s="42"/>
+    </row>
+    <row r="189" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A189" s="32">
         <v>241207022</v>
       </c>
-      <c r="B188" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="C188" s="8" t="s">
+      <c r="B189" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C189" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D188" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E188" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="F188" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G188" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="H188" s="43"/>
-      <c r="I188" s="43"/>
-      <c r="J188" s="43"/>
-    </row>
-    <row r="189" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A189" s="33">
-        <v>551811232</v>
-      </c>
-      <c r="B189" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D189" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E189" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="F189" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G189" s="25" t="s">
+      <c r="D189" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E189" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="F189" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G189" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="H189" s="32">
-        <v>241207022</v>
-      </c>
-      <c r="I189" s="42"/>
-      <c r="J189" s="42"/>
+      <c r="H189" s="43"/>
+      <c r="I189" s="43"/>
+      <c r="J189" s="43"/>
     </row>
     <row r="190" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A190" s="33">
-        <v>551908082</v>
+        <v>551811232</v>
       </c>
       <c r="B190" s="24" t="s">
         <v>463</v>
@@ -10493,13 +10491,13 @@
         <v>143</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F190" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G190" s="25" t="s">
         <v>464</v>
@@ -10512,7 +10510,7 @@
     </row>
     <row r="191" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A191" s="33">
-        <v>351704200</v>
+        <v>551908082</v>
       </c>
       <c r="B191" s="24" t="s">
         <v>465</v>
@@ -10521,13 +10519,13 @@
         <v>143</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F191" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G191" s="25" t="s">
         <v>466</v>
@@ -10540,25 +10538,25 @@
     </row>
     <row r="192" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A192" s="33">
-        <v>242103221</v>
+        <v>351704200</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F192" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G192" s="25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H192" s="32">
         <v>241207022</v>
@@ -10568,22 +10566,22 @@
     </row>
     <row r="193" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A193" s="33">
-        <v>351806120</v>
+        <v>242103221</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F193" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G193" s="25" t="s">
         <v>469</v>
@@ -10596,7 +10594,7 @@
     </row>
     <row r="194" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A194" s="33">
-        <v>351705170</v>
+        <v>351806120</v>
       </c>
       <c r="B194" s="24" t="s">
         <v>470</v>
@@ -10605,13 +10603,13 @@
         <v>143</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F194" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G194" s="25" t="s">
         <v>471</v>
@@ -10623,75 +10621,81 @@
       <c r="J194" s="42"/>
     </row>
     <row r="195" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A195" s="32">
+      <c r="A195" s="33">
+        <v>351705170</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D195" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E195" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F195" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G195" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="H195" s="32">
+        <v>241207022</v>
+      </c>
+      <c r="I195" s="42"/>
+      <c r="J195" s="42"/>
+    </row>
+    <row r="196" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A196" s="32">
         <v>552308001</v>
       </c>
-      <c r="B195" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="C195" s="8" t="s">
+      <c r="B196" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D195" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="E195" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="F195" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G195" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="H195" s="43"/>
-      <c r="I195" s="43"/>
-      <c r="J195" s="43"/>
-    </row>
-    <row r="196" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A196" s="33">
+      <c r="D196" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E196" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="F196" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G196" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
+      <c r="J196" s="43"/>
+    </row>
+    <row r="197" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A197" s="33">
         <v>552309096</v>
       </c>
-      <c r="B196" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D196" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="E196" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="F196" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G196" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="H196" s="32">
-        <v>552308001</v>
-      </c>
-      <c r="I196" s="42"/>
-      <c r="J196" s="42"/>
-    </row>
-    <row r="197" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A197" s="23"/>
-      <c r="B197" s="24"/>
+      <c r="B197" s="24" t="s">
+        <v>476</v>
+      </c>
       <c r="C197" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F197" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G197" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="G197" s="25" t="s">
+        <v>477</v>
+      </c>
       <c r="H197" s="32">
         <v>552308001</v>
       </c>
@@ -10705,13 +10709,13 @@
         <v>143</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F198" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G198" s="25"/>
       <c r="H198" s="32">
@@ -10721,27 +10725,21 @@
       <c r="J198" s="42"/>
     </row>
     <row r="199" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A199" s="33">
-        <v>551903248</v>
-      </c>
-      <c r="B199" s="24" t="s">
-        <v>476</v>
-      </c>
+      <c r="A199" s="23"/>
+      <c r="B199" s="24"/>
       <c r="C199" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F199" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G199" s="25" t="s">
-        <v>477</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G199" s="25"/>
       <c r="H199" s="32">
         <v>552308001</v>
       </c>
@@ -10750,7 +10748,7 @@
     </row>
     <row r="200" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A200" s="33">
-        <v>552102072</v>
+        <v>551903248</v>
       </c>
       <c r="B200" s="24" t="s">
         <v>478</v>
@@ -10759,13 +10757,13 @@
         <v>143</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F200" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G200" s="25" t="s">
         <v>479</v>
@@ -10778,7 +10776,7 @@
     </row>
     <row r="201" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A201" s="33">
-        <v>551902177</v>
+        <v>552102072</v>
       </c>
       <c r="B201" s="24" t="s">
         <v>480</v>
@@ -10787,13 +10785,13 @@
         <v>143</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F201" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G201" s="25" t="s">
         <v>481</v>
@@ -10805,75 +10803,75 @@
       <c r="J201" s="42"/>
     </row>
     <row r="202" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A202" s="32">
+      <c r="A202" s="33">
+        <v>551902177</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D202" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E202" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="F202" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G202" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="H202" s="32">
+        <v>552308001</v>
+      </c>
+      <c r="I202" s="42"/>
+      <c r="J202" s="42"/>
+    </row>
+    <row r="203" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A203" s="32">
         <v>552207143</v>
       </c>
-      <c r="B202" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="C202" s="10" t="s">
+      <c r="B203" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D202" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E202" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="F202" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G202" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="H202" s="46"/>
-      <c r="I202" s="46"/>
-      <c r="J202" s="46"/>
-    </row>
-    <row r="203" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A203" s="23"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E203" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F203" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G203" s="25"/>
-      <c r="H203" s="32">
-        <v>552207143</v>
-      </c>
-      <c r="I203" s="42"/>
-      <c r="J203" s="42"/>
+      <c r="D203" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="E203" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G203" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="H203" s="46"/>
+      <c r="I203" s="46"/>
+      <c r="J203" s="46"/>
     </row>
     <row r="204" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A204" s="33">
-        <v>551905234</v>
-      </c>
-      <c r="B204" s="24" t="s">
-        <v>484</v>
-      </c>
+      <c r="A204" s="23"/>
+      <c r="B204" s="24"/>
       <c r="C204" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G204" s="25" t="s">
-        <v>485</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G204" s="25"/>
       <c r="H204" s="32">
         <v>552207143</v>
       </c>
@@ -10882,7 +10880,7 @@
     </row>
     <row r="205" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A205" s="33">
-        <v>552408002</v>
+        <v>551905234</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>486</v>
@@ -10891,16 +10889,16 @@
         <v>143</v>
       </c>
       <c r="D205" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E205" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G205" s="25" t="s">
         <v>487</v>
-      </c>
-      <c r="E205" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F205" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G205" s="25" t="s">
-        <v>488</v>
       </c>
       <c r="H205" s="32">
         <v>552207143</v>
@@ -10909,21 +10907,27 @@
       <c r="J205" s="42"/>
     </row>
     <row r="206" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A206" s="23"/>
-      <c r="B206" s="24"/>
+      <c r="A206" s="33">
+        <v>552408002</v>
+      </c>
+      <c r="B206" s="24" t="s">
+        <v>488</v>
+      </c>
       <c r="C206" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>351</v>
+        <v>489</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F206" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G206" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="G206" s="25" t="s">
+        <v>490</v>
+      </c>
       <c r="H206" s="32">
         <v>552207143</v>
       </c>
@@ -10931,27 +10935,21 @@
       <c r="J206" s="42"/>
     </row>
     <row r="207" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A207" s="33">
-        <v>351807385</v>
-      </c>
-      <c r="B207" s="24" t="s">
-        <v>489</v>
-      </c>
+      <c r="A207" s="23"/>
+      <c r="B207" s="24"/>
       <c r="C207" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>490</v>
+        <v>353</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F207" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G207" s="25" t="s">
-        <v>491</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G207" s="25"/>
       <c r="H207" s="32">
         <v>552207143</v>
       </c>
@@ -10959,21 +10957,27 @@
       <c r="J207" s="42"/>
     </row>
     <row r="208" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A208" s="23"/>
-      <c r="B208" s="24"/>
+      <c r="A208" s="33">
+        <v>351807385</v>
+      </c>
+      <c r="B208" s="24" t="s">
+        <v>491</v>
+      </c>
       <c r="C208" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>363</v>
+        <v>492</v>
       </c>
       <c r="E208" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F208" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G208" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="G208" s="25" t="s">
+        <v>493</v>
+      </c>
       <c r="H208" s="32">
         <v>552207143</v>
       </c>
@@ -10981,62 +10985,56 @@
       <c r="J208" s="42"/>
     </row>
     <row r="209" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A209" s="32">
+      <c r="A209" s="23"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D209" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E209" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G209" s="25"/>
+      <c r="H209" s="32">
+        <v>552207143</v>
+      </c>
+      <c r="I209" s="42"/>
+      <c r="J209" s="42"/>
+    </row>
+    <row r="210" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A210" s="32">
         <v>311210046</v>
       </c>
-      <c r="B209" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="C209" s="10" t="s">
+      <c r="B210" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D209" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E209" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="F209" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G209" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="H209" s="46"/>
-      <c r="I209" s="46"/>
-      <c r="J209" s="46"/>
-    </row>
-    <row r="210" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A210" s="33">
-        <v>551903186</v>
-      </c>
-      <c r="B210" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E210" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="F210" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G210" s="25" t="s">
+      <c r="D210" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="E210" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="F210" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G210" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="H210" s="32">
-        <v>311210046</v>
-      </c>
-      <c r="I210" s="42"/>
-      <c r="J210" s="42"/>
+      <c r="H210" s="46"/>
+      <c r="I210" s="46"/>
+      <c r="J210" s="46"/>
     </row>
     <row r="211" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A211" s="33">
-        <v>551902035</v>
+        <v>551903186</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>496</v>
@@ -11045,13 +11043,13 @@
         <v>143</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E211" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F211" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G211" s="25" t="s">
         <v>497</v>
@@ -11063,21 +11061,27 @@
       <c r="J211" s="42"/>
     </row>
     <row r="212" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A212" s="33"/>
-      <c r="B212" s="24"/>
+      <c r="A212" s="33">
+        <v>551902035</v>
+      </c>
+      <c r="B212" s="24" t="s">
+        <v>498</v>
+      </c>
       <c r="C212" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>498</v>
+        <v>402</v>
       </c>
       <c r="E212" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F212" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G212" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="G212" s="25" t="s">
+        <v>499</v>
+      </c>
       <c r="H212" s="32">
         <v>311210046</v>
       </c>
@@ -11085,27 +11089,21 @@
       <c r="J212" s="42"/>
     </row>
     <row r="213" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A213" s="33">
-        <v>552408001</v>
-      </c>
-      <c r="B213" s="24" t="s">
-        <v>499</v>
-      </c>
+      <c r="A213" s="33"/>
+      <c r="B213" s="24"/>
       <c r="C213" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>365</v>
+        <v>500</v>
       </c>
       <c r="E213" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F213" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G213" s="25" t="s">
-        <v>500</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G213" s="25"/>
       <c r="H213" s="32">
         <v>311210046</v>
       </c>
@@ -11113,19 +11111,23 @@
       <c r="J213" s="42"/>
     </row>
     <row r="214" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A214" s="23"/>
-      <c r="B214" s="24"/>
+      <c r="A214" s="33">
+        <v>552408001</v>
+      </c>
+      <c r="B214" s="24" t="s">
+        <v>501</v>
+      </c>
       <c r="C214" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>501</v>
+        <v>367</v>
       </c>
       <c r="E214" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F214" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G214" s="25" t="s">
         <v>502</v>
@@ -11137,26 +11139,22 @@
       <c r="J214" s="42"/>
     </row>
     <row r="215" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A215" s="23">
-        <v>552507001</v>
-      </c>
-      <c r="B215" s="36" t="s">
-        <v>503</v>
-      </c>
+      <c r="A215" s="23"/>
+      <c r="B215" s="24"/>
       <c r="C215" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>368</v>
+        <v>503</v>
       </c>
       <c r="E215" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F215" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G215" s="25" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H215" s="32">
         <v>311210046</v>
@@ -11165,49 +11163,51 @@
       <c r="J215" s="42"/>
     </row>
     <row r="216" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A216" s="40">
-        <v>551911082</v>
-      </c>
-      <c r="B216" s="27" t="s">
+      <c r="A216" s="23">
+        <v>552507001</v>
+      </c>
+      <c r="B216" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D216" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E216" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F216" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G216" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="C216" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D216" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E216" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F216" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="G216" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="H216" s="46"/>
-      <c r="I216" s="46"/>
-      <c r="J216" s="46"/>
+      <c r="H216" s="32">
+        <v>311210046</v>
+      </c>
+      <c r="I216" s="42"/>
+      <c r="J216" s="42"/>
     </row>
     <row r="217" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
       <c r="A217" s="40">
-        <v>311406032</v>
+        <v>551911082</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C217" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D217" s="35" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E217" s="35" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F217" s="35" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G217" s="35" t="s">
         <v>508</v>
@@ -11216,50 +11216,50 @@
       <c r="I217" s="46"/>
       <c r="J217" s="46"/>
     </row>
-    <row r="218" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A218" s="32">
-        <v>301410004</v>
+    <row r="218" spans="1:10" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A218" s="40">
+        <v>311406032</v>
       </c>
       <c r="B218" s="27" t="s">
         <v>509</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="D218" s="35" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E218" s="35" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F218" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="G218" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G218" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="H218" s="43"/>
-      <c r="I218" s="43"/>
-      <c r="J218" s="43"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="46"/>
+      <c r="J218" s="46"/>
     </row>
     <row r="219" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A219" s="32">
-        <v>311308046</v>
+        <v>301410004</v>
       </c>
       <c r="B219" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D219" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E219" s="28" t="s">
-        <v>271</v>
+      <c r="D219" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E219" s="35" t="s">
+        <v>273</v>
       </c>
       <c r="F219" s="35" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G219" s="28" t="s">
         <v>512</v>
@@ -11269,116 +11269,114 @@
       <c r="J219" s="43"/>
     </row>
     <row r="220" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A220" s="40">
-        <v>552209075</v>
+      <c r="A220" s="32">
+        <v>311308046</v>
       </c>
       <c r="B220" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E220" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="F220" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="G220" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+    </row>
+    <row r="221" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A221" s="40">
+        <v>552209075</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C221" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D220" s="35" t="s">
+      <c r="D221" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E220" s="35" t="s">
+      <c r="E221" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F220" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="G220" s="35" t="s">
-        <v>514</v>
-      </c>
-      <c r="H220" s="46"/>
-      <c r="I220" s="46"/>
-      <c r="J220" s="46"/>
-    </row>
-    <row r="221" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A221" s="41">
+      <c r="F221" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="G221" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="H221" s="46"/>
+      <c r="I221" s="46"/>
+      <c r="J221" s="46"/>
+    </row>
+    <row r="222" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A222" s="41">
         <v>552503142</v>
       </c>
-      <c r="B221" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D221" s="34" t="s">
+      <c r="B222" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E221" s="34" t="s">
+      <c r="E222" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F221" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="G221" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="H221" s="40">
+      <c r="F222" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="G222" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H222" s="40">
         <v>552209075</v>
       </c>
-      <c r="I221" s="45"/>
-      <c r="J221" s="45"/>
-    </row>
-    <row r="222" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A222" s="40">
+      <c r="I222" s="45"/>
+      <c r="J222" s="45"/>
+    </row>
+    <row r="223" spans="1:10" s="11" customFormat="1" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A223" s="40">
         <v>351704266</v>
       </c>
-      <c r="B222" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="C222" s="10" t="s">
+      <c r="B223" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C223" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D222" s="35" t="s">
+      <c r="D223" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="E222" s="35" t="s">
+      <c r="E223" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="F222" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="G222" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="H222" s="46"/>
-      <c r="I222" s="46"/>
-      <c r="J222" s="46"/>
-    </row>
-    <row r="223" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A223" s="33">
-        <v>351705116</v>
-      </c>
-      <c r="B223" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D223" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E223" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F223" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G223" s="25" t="s">
+      <c r="F223" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="G223" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="H223" s="40">
-        <v>351704266</v>
-      </c>
-      <c r="I223" s="42"/>
-      <c r="J223" s="42"/>
+      <c r="H223" s="46"/>
+      <c r="I223" s="46"/>
+      <c r="J223" s="46"/>
     </row>
     <row r="224" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A224" s="33">
-        <v>551907175</v>
+        <v>351705116</v>
       </c>
       <c r="B224" s="24" t="s">
         <v>521</v>
@@ -11393,7 +11391,7 @@
         <v>181</v>
       </c>
       <c r="F224" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G224" s="25" t="s">
         <v>522</v>
@@ -11406,7 +11404,7 @@
     </row>
     <row r="225" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A225" s="33">
-        <v>351810006</v>
+        <v>551907175</v>
       </c>
       <c r="B225" s="24" t="s">
         <v>523</v>
@@ -11421,7 +11419,7 @@
         <v>181</v>
       </c>
       <c r="F225" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G225" s="25" t="s">
         <v>524</v>
@@ -11434,7 +11432,7 @@
     </row>
     <row r="226" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A226" s="33">
-        <v>552204114</v>
+        <v>351810006</v>
       </c>
       <c r="B226" s="24" t="s">
         <v>525</v>
@@ -11449,7 +11447,7 @@
         <v>181</v>
       </c>
       <c r="F226" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G226" s="25" t="s">
         <v>526</v>
@@ -11462,7 +11460,7 @@
     </row>
     <row r="227" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A227" s="33">
-        <v>552405041</v>
+        <v>552204114</v>
       </c>
       <c r="B227" s="24" t="s">
         <v>527</v>
@@ -11477,7 +11475,7 @@
         <v>181</v>
       </c>
       <c r="F227" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G227" s="25" t="s">
         <v>528</v>
@@ -11490,7 +11488,7 @@
     </row>
     <row r="228" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A228" s="33">
-        <v>552502312</v>
+        <v>552405041</v>
       </c>
       <c r="B228" s="24" t="s">
         <v>529</v>
@@ -11505,7 +11503,7 @@
         <v>181</v>
       </c>
       <c r="F228" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G228" s="25" t="s">
         <v>530</v>
@@ -11518,7 +11516,7 @@
     </row>
     <row r="229" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A229" s="33">
-        <v>552408266</v>
+        <v>552502312</v>
       </c>
       <c r="B229" s="24" t="s">
         <v>531</v>
@@ -11533,7 +11531,7 @@
         <v>181</v>
       </c>
       <c r="F229" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G229" s="25" t="s">
         <v>532</v>
@@ -11545,82 +11543,80 @@
       <c r="J229" s="42"/>
     </row>
     <row r="230" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A230" s="32">
+      <c r="A230" s="33">
+        <v>552408266</v>
+      </c>
+      <c r="B230" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E230" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F230" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G230" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="H230" s="40">
+        <v>351704266</v>
+      </c>
+      <c r="I230" s="42"/>
+      <c r="J230" s="42"/>
+    </row>
+    <row r="231" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A231" s="32">
         <v>551905123</v>
       </c>
-      <c r="B230" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="C230" s="8" t="s">
+      <c r="B231" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="C231" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D230" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E230" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="F230" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="G230" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="H230" s="43"/>
-      <c r="I230" s="43"/>
-      <c r="J230" s="43"/>
-    </row>
-    <row r="231" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A231" s="33">
-        <v>351708043</v>
-      </c>
-      <c r="B231" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D231" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="E231" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="F231" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G231" s="25" t="s">
+      <c r="D231" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E231" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F231" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G231" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="H231" s="32">
-        <v>551905123</v>
-      </c>
-      <c r="I231" s="32">
-        <v>301410004</v>
-      </c>
-      <c r="J231" s="42"/>
+      <c r="H231" s="43"/>
+      <c r="I231" s="43"/>
+      <c r="J231" s="43"/>
     </row>
     <row r="232" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A232" s="33">
-        <v>551905123</v>
+        <v>351708043</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E232" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F232" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G232" s="25" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H232" s="32">
         <v>551905123</v>
@@ -11632,25 +11628,25 @@
     </row>
     <row r="233" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A233" s="33">
-        <v>552011003</v>
+        <v>551905123</v>
       </c>
       <c r="B233" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E233" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F233" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G233" s="25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H233" s="32">
         <v>551905123</v>
@@ -11662,7 +11658,7 @@
     </row>
     <row r="234" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A234" s="33">
-        <v>552209161</v>
+        <v>552011003</v>
       </c>
       <c r="B234" s="24" t="s">
         <v>539</v>
@@ -11671,13 +11667,13 @@
         <v>21</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E234" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F234" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G234" s="25" t="s">
         <v>540</v>
@@ -11692,7 +11688,7 @@
     </row>
     <row r="235" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A235" s="33">
-        <v>552502311</v>
+        <v>552209161</v>
       </c>
       <c r="B235" s="24" t="s">
         <v>541</v>
@@ -11701,13 +11697,13 @@
         <v>21</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E235" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F235" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G235" s="25" t="s">
         <v>542</v>
@@ -11722,7 +11718,7 @@
     </row>
     <row r="236" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A236" s="33">
-        <v>311206027</v>
+        <v>552502311</v>
       </c>
       <c r="B236" s="24" t="s">
         <v>543</v>
@@ -11731,13 +11727,13 @@
         <v>21</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E236" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F236" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G236" s="25" t="s">
         <v>544</v>
@@ -11752,7 +11748,7 @@
     </row>
     <row r="237" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A237" s="33">
-        <v>351703139</v>
+        <v>311206027</v>
       </c>
       <c r="B237" s="24" t="s">
         <v>545</v>
@@ -11761,13 +11757,13 @@
         <v>21</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E237" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F237" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G237" s="25" t="s">
         <v>546</v>
@@ -11782,7 +11778,7 @@
     </row>
     <row r="238" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A238" s="33">
-        <v>241609134</v>
+        <v>351703139</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>547</v>
@@ -11791,13 +11787,13 @@
         <v>21</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E238" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F238" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G238" s="25" t="s">
         <v>548</v>
@@ -11811,64 +11807,66 @@
       <c r="J238" s="42"/>
     </row>
     <row r="239" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A239" s="32">
-        <v>351703003</v>
-      </c>
-      <c r="B239" s="27" t="s">
+      <c r="A239" s="33">
+        <v>241609134</v>
+      </c>
+      <c r="B239" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="C239" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D239" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E239" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F239" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="G239" s="28" t="s">
+      <c r="C239" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E239" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="F239" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G239" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="H239" s="43"/>
+      <c r="H239" s="32">
+        <v>551905123</v>
+      </c>
       <c r="I239" s="32">
         <v>301410004</v>
       </c>
-      <c r="J239" s="43"/>
+      <c r="J239" s="42"/>
     </row>
     <row r="240" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A240" s="33">
-        <v>351810075</v>
-      </c>
-      <c r="B240" s="24" t="s">
+      <c r="A240" s="32">
+        <v>351703003</v>
+      </c>
+      <c r="B240" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D240" s="25" t="s">
+      <c r="C240" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E240" s="25" t="s">
+      <c r="E240" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F240" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G240" s="25" t="s">
+      <c r="F240" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G240" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="H240" s="42"/>
+      <c r="H240" s="43"/>
       <c r="I240" s="32">
         <v>301410004</v>
       </c>
-      <c r="J240" s="42"/>
+      <c r="J240" s="43"/>
     </row>
     <row r="241" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A241" s="33">
-        <v>351702002</v>
+        <v>351810075</v>
       </c>
       <c r="B241" s="24" t="s">
         <v>553</v>
@@ -11883,7 +11881,7 @@
         <v>91</v>
       </c>
       <c r="F241" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G241" s="25" t="s">
         <v>554</v>
@@ -11896,7 +11894,7 @@
     </row>
     <row r="242" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A242" s="33">
-        <v>242203112</v>
+        <v>351702002</v>
       </c>
       <c r="B242" s="24" t="s">
         <v>555</v>
@@ -11911,7 +11909,7 @@
         <v>91</v>
       </c>
       <c r="F242" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G242" s="25" t="s">
         <v>556</v>
@@ -11923,49 +11921,51 @@
       <c r="J242" s="42"/>
     </row>
     <row r="243" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A243" s="32">
-        <v>552504002</v>
-      </c>
-      <c r="B243" s="27" t="s">
+      <c r="A243" s="33">
+        <v>242203112</v>
+      </c>
+      <c r="B243" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D243" s="28" t="s">
+      <c r="C243" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E243" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F243" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G243" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="E243" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="F243" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="G243" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="H243" s="43"/>
-      <c r="I243" s="43"/>
-      <c r="J243" s="43"/>
+      <c r="H243" s="42"/>
+      <c r="I243" s="32">
+        <v>301410004</v>
+      </c>
+      <c r="J243" s="42"/>
     </row>
     <row r="244" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A244" s="32">
-        <v>552505001</v>
+        <v>552504002</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>333</v>
+        <v>560</v>
       </c>
       <c r="E244" s="28" t="s">
-        <v>334</v>
+        <v>561</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G244" s="28" t="s">
         <v>562</v>
@@ -11975,49 +11975,53 @@
       <c r="J244" s="43"/>
     </row>
     <row r="245" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A245" s="33">
+      <c r="A245" s="32">
+        <v>552505001</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D245" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E245" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="F245" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G245" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="H245" s="43"/>
+      <c r="I245" s="43"/>
+      <c r="J245" s="43"/>
+    </row>
+    <row r="246" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A246" s="33">
         <v>552311057</v>
       </c>
-      <c r="B245" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D245" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E245" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="F245" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G245" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="H245" s="32">
-        <v>552505001</v>
-      </c>
-      <c r="I245" s="42"/>
-      <c r="J245" s="42"/>
-    </row>
-    <row r="246" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A246" s="23"/>
-      <c r="B246" s="24"/>
+      <c r="B246" s="24" t="s">
+        <v>565</v>
+      </c>
       <c r="C246" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E246" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F246" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G246" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="G246" s="25" t="s">
+        <v>566</v>
+      </c>
       <c r="H246" s="32">
         <v>552505001</v>
       </c>
@@ -12025,27 +12029,21 @@
       <c r="J246" s="42"/>
     </row>
     <row r="247" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A247" s="33">
-        <v>552407046</v>
-      </c>
-      <c r="B247" s="24" t="s">
-        <v>565</v>
-      </c>
+      <c r="A247" s="23"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E247" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F247" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G247" s="25" t="s">
-        <v>566</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G247" s="25"/>
       <c r="H247" s="32">
         <v>552505001</v>
       </c>
@@ -12054,7 +12052,7 @@
     </row>
     <row r="248" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A248" s="33">
-        <v>552407355</v>
+        <v>552407046</v>
       </c>
       <c r="B248" s="24" t="s">
         <v>567</v>
@@ -12063,13 +12061,13 @@
         <v>143</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E248" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F248" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G248" s="25" t="s">
         <v>568</v>
@@ -12081,8 +12079,12 @@
       <c r="J248" s="42"/>
     </row>
     <row r="249" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A249" s="23"/>
-      <c r="B249" s="24"/>
+      <c r="A249" s="33">
+        <v>552407355</v>
+      </c>
+      <c r="B249" s="24" t="s">
+        <v>569</v>
+      </c>
       <c r="C249" s="7" t="s">
         <v>143</v>
       </c>
@@ -12090,12 +12092,14 @@
         <v>348</v>
       </c>
       <c r="E249" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F249" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G249" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="G249" s="25" t="s">
+        <v>570</v>
+      </c>
       <c r="H249" s="32">
         <v>552505001</v>
       </c>
@@ -12103,27 +12107,21 @@
       <c r="J249" s="42"/>
     </row>
     <row r="250" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A250" s="33">
-        <v>552404067</v>
-      </c>
-      <c r="B250" s="24" t="s">
-        <v>569</v>
-      </c>
+      <c r="A250" s="23"/>
+      <c r="B250" s="24"/>
       <c r="C250" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F250" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G250" s="25" t="s">
-        <v>570</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G250" s="25"/>
       <c r="H250" s="32">
         <v>552505001</v>
       </c>
@@ -12132,9 +12130,9 @@
     </row>
     <row r="251" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A251" s="33">
-        <v>552507002</v>
-      </c>
-      <c r="B251" s="36" t="s">
+        <v>552404067</v>
+      </c>
+      <c r="B251" s="24" t="s">
         <v>571</v>
       </c>
       <c r="C251" s="7" t="s">
@@ -12144,12 +12142,14 @@
         <v>351</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F251" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G251" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="G251" s="25" t="s">
+        <v>572</v>
+      </c>
       <c r="H251" s="32">
         <v>552505001</v>
       </c>
@@ -12157,75 +12157,79 @@
       <c r="J251" s="42"/>
     </row>
     <row r="252" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A252" s="26">
+      <c r="A252" s="33">
+        <v>552507002</v>
+      </c>
+      <c r="B252" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D252" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="E252" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G252" s="25"/>
+      <c r="H252" s="32">
+        <v>552505001</v>
+      </c>
+      <c r="I252" s="42"/>
+      <c r="J252" s="42"/>
+    </row>
+    <row r="253" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A253" s="26">
         <v>351807139</v>
       </c>
-      <c r="B252" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="C252" s="8" t="s">
+      <c r="B253" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C253" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D252" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="E252" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="F252" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="G252" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="H252" s="43"/>
-      <c r="I252" s="43"/>
-      <c r="J252" s="43"/>
-    </row>
-    <row r="253" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A253" s="33">
+      <c r="D253" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E253" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="F253" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G253" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="H253" s="43"/>
+      <c r="I253" s="43"/>
+      <c r="J253" s="43"/>
+    </row>
+    <row r="254" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A254" s="33">
         <v>552409184</v>
       </c>
-      <c r="B253" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D253" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="E253" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="F253" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G253" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="H253" s="26">
-        <v>351807139</v>
-      </c>
-      <c r="I253" s="42"/>
-      <c r="J253" s="42"/>
-    </row>
-    <row r="254" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A254" s="23"/>
-      <c r="B254" s="24"/>
+      <c r="B254" s="24" t="s">
+        <v>576</v>
+      </c>
       <c r="C254" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E254" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F254" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G254" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="G254" s="25" t="s">
+        <v>577</v>
+      </c>
       <c r="H254" s="26">
         <v>351807139</v>
       </c>
@@ -12233,12 +12237,8 @@
       <c r="J254" s="42"/>
     </row>
     <row r="255" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A255" s="33">
-        <v>351807139</v>
-      </c>
-      <c r="B255" s="24" t="s">
-        <v>572</v>
-      </c>
+      <c r="A255" s="23"/>
+      <c r="B255" s="24"/>
       <c r="C255" s="7" t="s">
         <v>143</v>
       </c>
@@ -12246,14 +12246,12 @@
         <v>363</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F255" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G255" s="25" t="s">
-        <v>573</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G255" s="25"/>
       <c r="H255" s="26">
         <v>351807139</v>
       </c>
@@ -12262,10 +12260,10 @@
     </row>
     <row r="256" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A256" s="33">
-        <v>552011110</v>
+        <v>351807139</v>
       </c>
       <c r="B256" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>143</v>
@@ -12274,13 +12272,13 @@
         <v>365</v>
       </c>
       <c r="E256" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F256" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G256" s="25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H256" s="26">
         <v>351807139</v>
@@ -12290,25 +12288,25 @@
     </row>
     <row r="257" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A257" s="33">
-        <v>552505001</v>
+        <v>552011110</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E257" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F257" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G257" s="25" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="H257" s="26">
         <v>351807139</v>
@@ -12317,21 +12315,27 @@
       <c r="J257" s="42"/>
     </row>
     <row r="258" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A258" s="23"/>
-      <c r="B258" s="24"/>
+      <c r="A258" s="33">
+        <v>552505001</v>
+      </c>
+      <c r="B258" s="24" t="s">
+        <v>563</v>
+      </c>
       <c r="C258" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F258" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G258" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="G258" s="25" t="s">
+        <v>564</v>
+      </c>
       <c r="H258" s="26">
         <v>351807139</v>
       </c>
@@ -12339,27 +12343,21 @@
       <c r="J258" s="42"/>
     </row>
     <row r="259" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A259" s="33">
-        <v>552205185</v>
-      </c>
-      <c r="B259" s="24" t="s">
-        <v>578</v>
-      </c>
+      <c r="A259" s="23"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>579</v>
+        <v>373</v>
       </c>
       <c r="E259" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F259" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G259" s="25" t="s">
-        <v>580</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G259" s="25"/>
       <c r="H259" s="26">
         <v>351807139</v>
       </c>
@@ -12367,62 +12365,62 @@
       <c r="J259" s="42"/>
     </row>
     <row r="260" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A260" s="32">
+      <c r="A260" s="33">
+        <v>552205185</v>
+      </c>
+      <c r="B260" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D260" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="E260" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="F260" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G260" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="H260" s="26">
+        <v>351807139</v>
+      </c>
+      <c r="I260" s="42"/>
+      <c r="J260" s="42"/>
+    </row>
+    <row r="261" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A261" s="32">
         <v>242203268</v>
       </c>
-      <c r="B260" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="C260" s="8" t="s">
+      <c r="B261" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="C261" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D260" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E260" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="F260" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="G260" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="H260" s="43"/>
-      <c r="I260" s="43"/>
-      <c r="J260" s="43"/>
-    </row>
-    <row r="261" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A261" s="33">
+      <c r="D261" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E261" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="F261" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G261" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="H261" s="43"/>
+      <c r="I261" s="43"/>
+      <c r="J261" s="43"/>
+    </row>
+    <row r="262" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A262" s="33">
         <v>242206127</v>
-      </c>
-      <c r="B261" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D261" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E261" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F261" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G261" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="H261" s="32">
-        <v>242203268</v>
-      </c>
-      <c r="I261" s="42"/>
-      <c r="J261" s="42"/>
-    </row>
-    <row r="262" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A262" s="23">
-        <v>351807041</v>
       </c>
       <c r="B262" s="24" t="s">
         <v>585</v>
@@ -12431,13 +12429,13 @@
         <v>143</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E262" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F262" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G262" s="25" t="s">
         <v>586</v>
@@ -12449,8 +12447,8 @@
       <c r="J262" s="42"/>
     </row>
     <row r="263" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A263" s="33">
-        <v>351807038</v>
+      <c r="A263" s="23">
+        <v>351807041</v>
       </c>
       <c r="B263" s="24" t="s">
         <v>587</v>
@@ -12459,13 +12457,13 @@
         <v>143</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E263" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F263" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G263" s="25" t="s">
         <v>588</v>
@@ -12478,7 +12476,7 @@
     </row>
     <row r="264" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A264" s="33">
-        <v>552505002</v>
+        <v>351807038</v>
       </c>
       <c r="B264" s="24" t="s">
         <v>589</v>
@@ -12487,13 +12485,13 @@
         <v>143</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E264" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F264" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G264" s="25" t="s">
         <v>590</v>
@@ -12505,21 +12503,27 @@
       <c r="J264" s="42"/>
     </row>
     <row r="265" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A265" s="33"/>
-      <c r="B265" s="24"/>
+      <c r="A265" s="33">
+        <v>552505002</v>
+      </c>
+      <c r="B265" s="24" t="s">
+        <v>591</v>
+      </c>
       <c r="C265" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E265" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F265" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G265" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="G265" s="25" t="s">
+        <v>592</v>
+      </c>
       <c r="H265" s="32">
         <v>242203268</v>
       </c>
@@ -12527,12 +12531,8 @@
       <c r="J265" s="42"/>
     </row>
     <row r="266" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A266" s="33">
-        <v>551908102</v>
-      </c>
-      <c r="B266" s="24" t="s">
-        <v>591</v>
-      </c>
+      <c r="A266" s="33"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="7" t="s">
         <v>143</v>
       </c>
@@ -12540,14 +12540,12 @@
         <v>390</v>
       </c>
       <c r="E266" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F266" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G266" s="25" t="s">
-        <v>592</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G266" s="25"/>
       <c r="H266" s="32">
         <v>242203268</v>
       </c>
@@ -12555,75 +12553,81 @@
       <c r="J266" s="42"/>
     </row>
     <row r="267" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A267" s="32">
+      <c r="A267" s="33">
+        <v>551908102</v>
+      </c>
+      <c r="B267" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D267" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E267" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F267" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G267" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="H267" s="32">
+        <v>242203268</v>
+      </c>
+      <c r="I267" s="42"/>
+      <c r="J267" s="42"/>
+    </row>
+    <row r="268" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A268" s="32">
         <v>241611285</v>
       </c>
-      <c r="B267" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="C267" s="8" t="s">
+      <c r="B268" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="C268" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D267" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="E267" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="F267" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="G267" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="H267" s="43"/>
-      <c r="I267" s="43"/>
-      <c r="J267" s="43"/>
-    </row>
-    <row r="268" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A268" s="33">
+      <c r="D268" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E268" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="F268" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G268" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="H268" s="43"/>
+      <c r="I268" s="43"/>
+      <c r="J268" s="43"/>
+    </row>
+    <row r="269" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
+      <c r="A269" s="33">
         <v>242202572</v>
       </c>
-      <c r="B268" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D268" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E268" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="F268" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G268" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="H268" s="32">
-        <v>241611285</v>
-      </c>
-      <c r="I268" s="42"/>
-      <c r="J268" s="42"/>
-    </row>
-    <row r="269" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A269" s="33"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="24" t="s">
+        <v>597</v>
+      </c>
       <c r="C269" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E269" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F269" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G269" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="G269" s="25" t="s">
+        <v>598</v>
+      </c>
       <c r="H269" s="32">
         <v>241611285</v>
       </c>
@@ -12631,27 +12635,21 @@
       <c r="J269" s="42"/>
     </row>
     <row r="270" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="A270" s="33">
-        <v>351707157</v>
-      </c>
-      <c r="B270" s="24" t="s">
-        <v>597</v>
-      </c>
+      <c r="A270" s="33"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E270" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F270" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G270" s="25" t="s">
-        <v>598</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G270" s="25"/>
       <c r="H270" s="32">
         <v>241611285</v>
       </c>
@@ -12660,7 +12658,7 @@
     </row>
     <row r="271" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A271" s="33">
-        <v>552111170</v>
+        <v>351707157</v>
       </c>
       <c r="B271" s="24" t="s">
         <v>599</v>
@@ -12669,13 +12667,13 @@
         <v>143</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E271" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F271" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G271" s="25" t="s">
         <v>600</v>
@@ -12688,7 +12686,7 @@
     </row>
     <row r="272" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A272" s="33">
-        <v>552309054</v>
+        <v>552111170</v>
       </c>
       <c r="B272" s="24" t="s">
         <v>601</v>
@@ -12697,13 +12695,13 @@
         <v>143</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E272" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F272" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G272" s="25" t="s">
         <v>602</v>
@@ -12714,9 +12712,9 @@
       <c r="I272" s="42"/>
       <c r="J272" s="42"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" ht="17.45" customHeight="1" outlineLevel="1">
       <c r="A273" s="33">
-        <v>241402055</v>
+        <v>552309054</v>
       </c>
       <c r="B273" s="24" t="s">
         <v>603</v>
@@ -12728,10 +12726,10 @@
         <v>411</v>
       </c>
       <c r="E273" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F273" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G273" s="25" t="s">
         <v>604</v>
@@ -12742,77 +12740,105 @@
       <c r="I273" s="42"/>
       <c r="J273" s="42"/>
     </row>
-    <row r="274" spans="1:10"/>
+    <row r="274" spans="1:10">
+      <c r="A274" s="33">
+        <v>241402055</v>
+      </c>
+      <c r="B274" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="E274" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F274" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G274" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="H274" s="32">
+        <v>241611285</v>
+      </c>
+      <c r="I274" s="42"/>
+      <c r="J274" s="42"/>
+    </row>
     <row r="275" spans="1:10"/>
+    <row r="276" spans="1:10"/>
   </sheetData>
-  <autoFilter ref="A1:J273" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A274:A1048576 A1">
+  <autoFilter ref="A1:J274" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A275:A1048576 A1">
     <cfRule type="duplicateValues" dxfId="67" priority="386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A105">
     <cfRule type="duplicateValues" dxfId="66" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A118:A141 A108:A109 A106 A157:A162 A143:A155">
+  <conditionalFormatting sqref="A119:A142 A109:A110 A158:A163 A144:A156 A106:A107">
     <cfRule type="duplicateValues" dxfId="65" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
+  <conditionalFormatting sqref="A111">
     <cfRule type="duplicateValues" dxfId="64" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="A108">
     <cfRule type="duplicateValues" dxfId="63" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="A112">
     <cfRule type="duplicateValues" dxfId="62" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112:A117">
+  <conditionalFormatting sqref="A113:A118">
     <cfRule type="duplicateValues" dxfId="61" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
+  <conditionalFormatting sqref="A157">
     <cfRule type="duplicateValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+  <conditionalFormatting sqref="A143">
     <cfRule type="duplicateValues" dxfId="59" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A165:A166 A168:A201 A163 A203:A208 A210:A215">
+  <conditionalFormatting sqref="A166:A167 A169:A202 A164 A204:A209 A211:A216">
     <cfRule type="duplicateValues" dxfId="58" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
+  <conditionalFormatting sqref="A165">
     <cfRule type="duplicateValues" dxfId="57" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A167">
+  <conditionalFormatting sqref="A168">
     <cfRule type="duplicateValues" dxfId="56" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A202">
+  <conditionalFormatting sqref="A203">
     <cfRule type="duplicateValues" dxfId="55" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209">
+  <conditionalFormatting sqref="A210">
     <cfRule type="duplicateValues" dxfId="54" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A261:A273 A240:A242 A220:A229 A231:A238 A245:A251 A253:A259 A216:A217">
+  <conditionalFormatting sqref="A262:A274 A241:A243 A221:A230 A232:A239 A246:A252 A254:A260 A217:A218">
     <cfRule type="duplicateValues" dxfId="53" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A239">
+  <conditionalFormatting sqref="A240">
     <cfRule type="duplicateValues" dxfId="52" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+  <conditionalFormatting sqref="A220">
     <cfRule type="duplicateValues" dxfId="51" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A218">
+  <conditionalFormatting sqref="A219">
     <cfRule type="duplicateValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A230">
+  <conditionalFormatting sqref="A231">
     <cfRule type="duplicateValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A260">
+  <conditionalFormatting sqref="A261">
     <cfRule type="duplicateValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A244">
+  <conditionalFormatting sqref="A245">
     <cfRule type="duplicateValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A252">
+  <conditionalFormatting sqref="A253">
     <cfRule type="duplicateValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A243">
+  <conditionalFormatting sqref="A244">
     <cfRule type="duplicateValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
@@ -12878,76 +12904,76 @@
   <conditionalFormatting sqref="H89">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H105">
+  <conditionalFormatting sqref="H91:H106">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109:H110">
+  <conditionalFormatting sqref="H110:H111">
     <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H117">
+  <conditionalFormatting sqref="H113:H118">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119:H128">
+  <conditionalFormatting sqref="H120:H129">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I118:I133">
+  <conditionalFormatting sqref="I119:I134">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H135:H141">
+  <conditionalFormatting sqref="H136:H142">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H143:H148">
+  <conditionalFormatting sqref="H144:H149">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H157:H162">
+  <conditionalFormatting sqref="H158:H163">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H166">
+  <conditionalFormatting sqref="H167">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H168:H172">
+  <conditionalFormatting sqref="H169:H173">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H174:H182">
+  <conditionalFormatting sqref="H175:H183">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I173:I187">
+  <conditionalFormatting sqref="I174:I188">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H189:H194">
+  <conditionalFormatting sqref="H190:H195">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H196:H201">
+  <conditionalFormatting sqref="H197:H202">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H203:H208">
+  <conditionalFormatting sqref="H204:H209">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H210:H215">
+  <conditionalFormatting sqref="H211:H216">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
+  <conditionalFormatting sqref="H222">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H223:H229">
+  <conditionalFormatting sqref="H224:H230">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H231:H238">
+  <conditionalFormatting sqref="H232:H239">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I231:I242">
+  <conditionalFormatting sqref="I232:I243">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H245:H251">
+  <conditionalFormatting sqref="H246:H252">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H253:H259">
+  <conditionalFormatting sqref="H254:H260">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H261:H266">
+  <conditionalFormatting sqref="H262:H267">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H268:H273">
+  <conditionalFormatting sqref="H269:H274">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
